--- a/AAII_Financials/Quarterly/TOGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOGL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>TOGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -782,34 +786,37 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
-        <v>600</v>
-      </c>
       <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>100</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -829,34 +836,37 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
-        <v>300</v>
-      </c>
       <c r="H10" s="3">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,31 +908,32 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3">
+        <v>100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1006,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1006,21 +1026,21 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1033,11 +1053,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1071,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1062,8 +1085,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,43 +1125,44 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>6600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9800</v>
       </c>
-      <c r="G17" s="3">
-        <v>1600</v>
-      </c>
       <c r="H17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1146,35 +1173,38 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-700</v>
-      </c>
       <c r="H18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,11 +1255,11 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1233,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1259,32 +1293,35 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-700</v>
-      </c>
       <c r="H21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1326,11 +1366,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1338,8 +1378,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1350,46 +1390,49 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1400,25 +1443,28 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,43 +1543,46 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1541,43 +1593,46 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,11 +1855,11 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1797,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -1823,43 +1893,46 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,43 +1993,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,43 +2140,44 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2000</v>
       </c>
       <c r="H41" s="3">
         <v>2000</v>
       </c>
       <c r="I41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2098,11 +2185,14 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,37 +2238,40 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2195,22 +2288,25 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2221,8 +2317,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,22 +2350,22 @@
         <v>900</v>
       </c>
       <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2283,49 +2382,52 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E46" s="3">
         <v>14900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
@@ -2333,11 +2435,14 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,25 +2488,28 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2409,8 +2517,8 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>5200</v>
       </c>
       <c r="H49" s="3">
-        <v>1300</v>
+        <v>5200</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>1300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2471,14 +2582,17 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,16 +2688,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2594,8 +2714,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2606,8 +2726,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E54" s="3">
         <v>19700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,37 +2880,38 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2823,14 +2957,14 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2839,27 +2973,30 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2868,20 +3005,20 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -2891,55 +3028,61 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,17 +3128,20 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3011,8 +3157,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,43 +3598,46 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-600</v>
       </c>
       <c r="O72" s="3">
         <v>-600</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E76" s="3">
         <v>11000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,95 +3898,101 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3839,7 +4038,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3850,8 +4049,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3868,14 +4067,17 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,37 +4323,40 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,32 +4395,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4216,14 +4437,17 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,32 +4543,35 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4357,14 +4587,17 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,41 +4813,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4626,31 +4875,31 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -4664,41 +4913,44 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>TOGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,28 +804,28 @@
         <v>2000</v>
       </c>
       <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3300</v>
       </c>
-      <c r="G9" s="3">
-        <v>1700</v>
-      </c>
       <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>100</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -839,37 +845,40 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
-        <v>1400</v>
-      </c>
       <c r="H10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,23 +933,23 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,8 +1039,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1029,21 +1048,21 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1056,11 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1096,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1088,8 +1110,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,46 +1151,47 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9300</v>
       </c>
-      <c r="G17" s="3">
-        <v>9800</v>
-      </c>
       <c r="H17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1176,38 +1202,41 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-6700</v>
-      </c>
       <c r="H18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,8 +1255,11 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,23 +1278,24 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1270,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1296,35 +1329,38 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-6600</v>
-      </c>
       <c r="H21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1369,11 +1408,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1381,8 +1420,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1393,49 +1432,52 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1446,29 +1488,32 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,46 +1594,49 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1596,46 +1647,49 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1646,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,23 +1912,26 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1870,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -1896,46 +1965,49 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -1946,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,46 +2071,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2046,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,46 +2226,47 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>12000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2000</v>
       </c>
       <c r="I41" s="3">
         <v>2000</v>
       </c>
       <c r="J41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
@@ -2188,11 +2274,14 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,40 +2330,43 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2291,25 +2383,28 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2320,8 +2415,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2341,34 +2436,37 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="E45" s="3">
         <v>900</v>
       </c>
       <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2385,52 +2483,55 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E46" s="3">
         <v>15300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
@@ -2438,11 +2539,14 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,28 +2595,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2520,8 +2627,8 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2556,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>5200</v>
       </c>
       <c r="I49" s="3">
-        <v>1300</v>
+        <v>5200</v>
       </c>
       <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>1300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2585,14 +2695,17 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2702,8 +2821,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2717,8 +2836,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2729,8 +2848,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E54" s="3">
         <v>20300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>600</v>
       </c>
       <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,40 +3010,41 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
-        <v>4200</v>
-      </c>
       <c r="G57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2960,14 +3093,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2976,30 +3109,33 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
-        <v>1900</v>
-      </c>
       <c r="G59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H59" s="3">
         <v>1100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3008,20 +3144,20 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -3031,58 +3167,64 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E60" s="3">
         <v>11000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3140,13 +3285,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3160,8 +3305,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
-        <v>6000</v>
-      </c>
       <c r="G66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,46 +3771,49 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28000</v>
       </c>
-      <c r="F72" s="3">
-        <v>-24100</v>
-      </c>
       <c r="G72" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-22400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-600</v>
       </c>
       <c r="P72" s="3">
         <v>-600</v>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E76" s="3">
         <v>9100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11000</v>
       </c>
-      <c r="F76" s="3">
-        <v>15000</v>
-      </c>
       <c r="G76" s="3">
+        <v>14900</v>
+      </c>
+      <c r="H76" s="3">
         <v>7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,101 +4089,107 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -4006,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4041,7 +4239,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4052,8 +4250,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -4070,14 +4268,17 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,40 +4539,43 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,35 +4615,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4440,14 +4660,17 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,35 +4772,38 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4590,14 +4819,17 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,44 +5058,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4878,31 +5126,31 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -4916,44 +5164,47 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>TOGL</t>
   </si>
@@ -748,16 +748,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="E8" s="3">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="F8" s="3">
         <v>2700</v>
       </c>
       <c r="G8" s="3">
-        <v>4100</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="3">
         <v>3100</v>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="E9" s="3">
         <v>2000</v>
@@ -810,7 +810,7 @@
         <v>2400</v>
       </c>
       <c r="G9" s="3">
-        <v>3300</v>
+        <v>-200</v>
       </c>
       <c r="H9" s="3">
         <v>1600</v>
@@ -819,7 +819,7 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -854,16 +854,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="H10" s="3">
         <v>1500</v>
@@ -872,7 +872,7 @@
         <v>700</v>
       </c>
       <c r="J10" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
         <v>1100</v>
@@ -936,11 +936,11 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1045,8 +1045,8 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4100</v>
+        <v>5300</v>
       </c>
       <c r="E17" s="3">
-        <v>9100</v>
+        <v>10100</v>
       </c>
       <c r="F17" s="3">
         <v>6600</v>
       </c>
       <c r="G17" s="3">
-        <v>9300</v>
+        <v>6500</v>
       </c>
       <c r="H17" s="3">
         <v>9900</v>
@@ -1211,16 +1211,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1900</v>
+        <v>-2400</v>
       </c>
       <c r="E18" s="3">
-        <v>-5300</v>
+        <v>-4600</v>
       </c>
       <c r="F18" s="3">
         <v>-3900</v>
       </c>
       <c r="G18" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="H18" s="3">
         <v>-6800</v>
@@ -1294,7 +1294,7 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1800</v>
+        <v>-2200</v>
       </c>
       <c r="E21" s="3">
-        <v>-5100</v>
+        <v>-4400</v>
       </c>
       <c r="F21" s="3">
         <v>-3800</v>
       </c>
       <c r="G21" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="H21" s="3">
         <v>-6800</v>
@@ -1444,16 +1444,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1900</v>
+        <v>-2400</v>
       </c>
       <c r="E23" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="F23" s="3">
         <v>-3800</v>
       </c>
       <c r="G23" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H23" s="3">
         <v>-6800</v>
@@ -1499,14 +1499,14 @@
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1603,16 +1603,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1900</v>
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="F26" s="3">
         <v>-3800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1800</v>
+        <v>-2200</v>
       </c>
       <c r="H26" s="3">
         <v>-6800</v>
@@ -1656,16 +1656,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1900</v>
+        <v>-2300</v>
       </c>
       <c r="E27" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="F27" s="3">
         <v>-3800</v>
       </c>
       <c r="G27" s="3">
-        <v>-1700</v>
+        <v>-2300</v>
       </c>
       <c r="H27" s="3">
         <v>-6800</v>
@@ -1930,7 +1930,7 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1900</v>
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="F33" s="3">
         <v>-3800</v>
       </c>
       <c r="G33" s="3">
-        <v>-1700</v>
+        <v>-2300</v>
       </c>
       <c r="H33" s="3">
         <v>-6800</v>
@@ -2080,16 +2080,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1900</v>
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="F35" s="3">
         <v>-3800</v>
       </c>
       <c r="G35" s="3">
-        <v>-1700</v>
+        <v>-2300</v>
       </c>
       <c r="H35" s="3">
         <v>-6800</v>
@@ -2445,19 +2445,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="3">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="3">
-        <v>900</v>
+        <v>3200</v>
       </c>
       <c r="G45" s="3">
         <v>1200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2498,19 +2498,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="E46" s="3">
-        <v>15300</v>
+        <v>16700</v>
       </c>
       <c r="F46" s="3">
-        <v>14900</v>
+        <v>17200</v>
       </c>
       <c r="G46" s="3">
         <v>16600</v>
       </c>
       <c r="H46" s="3">
-        <v>3600</v>
+        <v>5100</v>
       </c>
       <c r="I46" s="3">
         <v>2300</v>
@@ -2827,8 +2827,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="E54" s="3">
-        <v>20300</v>
+        <v>21600</v>
       </c>
       <c r="F54" s="3">
-        <v>19700</v>
+        <v>22000</v>
       </c>
       <c r="G54" s="3">
         <v>21000</v>
       </c>
       <c r="H54" s="3">
-        <v>9100</v>
+        <v>10700</v>
       </c>
       <c r="I54" s="3">
         <v>7700</v>
@@ -3073,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3126,22 +3126,22 @@
         <v>9900</v>
       </c>
       <c r="E59" s="3">
-        <v>7500</v>
+        <v>8200</v>
       </c>
       <c r="F59" s="3">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="G59" s="3">
         <v>2100</v>
       </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>2900</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3179,16 +3179,16 @@
         <v>11500</v>
       </c>
       <c r="E60" s="3">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="F60" s="3">
-        <v>8400</v>
+        <v>10800</v>
       </c>
       <c r="G60" s="3">
         <v>6100</v>
       </c>
       <c r="H60" s="3">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -3497,16 +3497,16 @@
         <v>11600</v>
       </c>
       <c r="E66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F66" s="3">
         <v>11100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>8600</v>
       </c>
       <c r="G66" s="3">
         <v>6100</v>
       </c>
       <c r="H66" s="3">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
@@ -3780,19 +3780,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35200</v>
+        <v>-35000</v>
       </c>
       <c r="E72" s="3">
-        <v>-33300</v>
+        <v>-32700</v>
       </c>
       <c r="F72" s="3">
-        <v>-28000</v>
+        <v>-28200</v>
       </c>
       <c r="G72" s="3">
         <v>-24200</v>
       </c>
       <c r="H72" s="3">
-        <v>-22400</v>
+        <v>-22800</v>
       </c>
       <c r="I72" s="3">
         <v>-15600</v>
@@ -3992,19 +3992,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="E76" s="3">
-        <v>9100</v>
+        <v>9700</v>
       </c>
       <c r="F76" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="G76" s="3">
         <v>14900</v>
       </c>
       <c r="H76" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="I76" s="3">
         <v>7100</v>
@@ -4156,16 +4156,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1900</v>
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="F81" s="3">
         <v>-3800</v>
       </c>
       <c r="G81" s="3">
-        <v>-1700</v>
+        <v>-2300</v>
       </c>
       <c r="H81" s="3">
         <v>-6800</v>

--- a/AAII_Financials/Quarterly/TOGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOGL_QTR_FIN.xlsx
@@ -748,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
         <v>5500</v>
@@ -757,7 +757,7 @@
         <v>2700</v>
       </c>
       <c r="G8" s="3">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="H8" s="3">
         <v>3100</v>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="3">
         <v>2000</v>
@@ -810,7 +810,7 @@
         <v>2400</v>
       </c>
       <c r="G9" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="H9" s="3">
         <v>1600</v>
@@ -854,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>3500</v>
@@ -863,7 +863,7 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="3">
         <v>1500</v>
@@ -1158,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5300</v>
+        <v>4100</v>
       </c>
       <c r="E17" s="3">
         <v>10100</v>
@@ -1167,13 +1167,13 @@
         <v>6600</v>
       </c>
       <c r="G17" s="3">
-        <v>6500</v>
+        <v>7300</v>
       </c>
       <c r="H17" s="3">
         <v>9900</v>
       </c>
       <c r="I17" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="J17" s="3">
         <v>1100</v>
@@ -1211,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2400</v>
+        <v>-1900</v>
       </c>
       <c r="E18" s="3">
         <v>-4600</v>
@@ -1220,13 +1220,13 @@
         <v>-3900</v>
       </c>
       <c r="G18" s="3">
-        <v>-5300</v>
+        <v>-4100</v>
       </c>
       <c r="H18" s="3">
         <v>-6800</v>
       </c>
       <c r="I18" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
@@ -1285,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1338,7 +1338,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2200</v>
+        <v>-1700</v>
       </c>
       <c r="E21" s="3">
         <v>-4400</v>
@@ -1347,13 +1347,13 @@
         <v>-3800</v>
       </c>
       <c r="G21" s="3">
-        <v>-2000</v>
+        <v>-800</v>
       </c>
       <c r="H21" s="3">
         <v>-6800</v>
       </c>
       <c r="I21" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
@@ -1444,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2400</v>
+        <v>-1800</v>
       </c>
       <c r="E23" s="3">
         <v>-4500</v>
@@ -1453,13 +1453,13 @@
         <v>-3800</v>
       </c>
       <c r="G23" s="3">
-        <v>-2000</v>
+        <v>-900</v>
       </c>
       <c r="H23" s="3">
         <v>-6800</v>
       </c>
       <c r="I23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2400</v>
+        <v>-1800</v>
       </c>
       <c r="E26" s="3">
         <v>-4500</v>
@@ -1612,7 +1612,7 @@
         <v>-3800</v>
       </c>
       <c r="G26" s="3">
-        <v>-2200</v>
+        <v>-800</v>
       </c>
       <c r="H26" s="3">
         <v>-6800</v>
@@ -1656,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2300</v>
+        <v>-1800</v>
       </c>
       <c r="E27" s="3">
         <v>-4500</v>
@@ -1665,7 +1665,7 @@
         <v>-3800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2300</v>
+        <v>-800</v>
       </c>
       <c r="H27" s="3">
         <v>-6800</v>
@@ -1921,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1974,7 +1974,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2300</v>
+        <v>-1800</v>
       </c>
       <c r="E33" s="3">
         <v>-4500</v>
@@ -1983,7 +1983,7 @@
         <v>-3800</v>
       </c>
       <c r="G33" s="3">
-        <v>-2300</v>
+        <v>-800</v>
       </c>
       <c r="H33" s="3">
         <v>-6800</v>
@@ -2080,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2300</v>
+        <v>-1800</v>
       </c>
       <c r="E35" s="3">
         <v>-4500</v>
@@ -2089,7 +2089,7 @@
         <v>-3800</v>
       </c>
       <c r="G35" s="3">
-        <v>-2300</v>
+        <v>-800</v>
       </c>
       <c r="H35" s="3">
         <v>-6800</v>
@@ -4156,7 +4156,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2300</v>
+        <v>-1800</v>
       </c>
       <c r="E81" s="3">
         <v>-4500</v>
@@ -4165,7 +4165,7 @@
         <v>-3800</v>
       </c>
       <c r="G81" s="3">
-        <v>-2300</v>
+        <v>-800</v>
       </c>
       <c r="H81" s="3">
         <v>-6800</v>
